--- a/Project1/PCcomponents.xlsx
+++ b/Project1/PCcomponents.xlsx
@@ -14,33 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>sbp</t>
-  </si>
-  <si>
-    <t>tobacco</t>
-  </si>
-  <si>
-    <t>ldl</t>
-  </si>
-  <si>
-    <t>adiposity</t>
-  </si>
-  <si>
-    <t>famhist</t>
-  </si>
-  <si>
-    <t>typea</t>
-  </si>
-  <si>
-    <t>obesity</t>
-  </si>
-  <si>
-    <t>alcohol</t>
-  </si>
-  <si>
-    <t>age</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>0.4499</t>
+  </si>
+  <si>
+    <t>0.3131</t>
+  </si>
+  <si>
+    <t>0.1242</t>
+  </si>
+  <si>
+    <t>0.0664</t>
+  </si>
+  <si>
+    <t>0.0286</t>
+  </si>
+  <si>
+    <t>0.0111</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>44.9889</t>
+  </si>
+  <si>
+    <t>76.2941</t>
+  </si>
+  <si>
+    <t>88.7138</t>
+  </si>
+  <si>
+    <t>95.3542</t>
+  </si>
+  <si>
+    <t>98.2154</t>
+  </si>
+  <si>
+    <t>99.3261</t>
+  </si>
+  <si>
+    <t>99.7506</t>
+  </si>
+  <si>
+    <t>99.9843</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>0.3205</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.1195</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.0929</t>
+  </si>
+  <si>
+    <t>0.0845</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.0512</t>
+  </si>
+  <si>
+    <t>0.0194</t>
+  </si>
+  <si>
+    <t>32.0532</t>
+  </si>
+  <si>
+    <t>45.3546</t>
+  </si>
+  <si>
+    <t>57.3074</t>
+  </si>
+  <si>
+    <t>67.8043</t>
+  </si>
+  <si>
+    <t>77.0917</t>
+  </si>
+  <si>
+    <t>85.543</t>
+  </si>
+  <si>
+    <t>92.9425</t>
+  </si>
+  <si>
+    <t>98.0575</t>
   </si>
 </sst>
 </file>
@@ -398,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -417,131 +522,161 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>138.3268398268398</v>
-      </c>
-      <c r="C2">
-        <v>20.47412299767998</v>
-      </c>
-      <c r="D2">
-        <v>419.1897125241281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3.635649350649351</v>
-      </c>
-      <c r="C3">
-        <v>4.588050580380221</v>
-      </c>
-      <c r="D3">
-        <v>21.05020812812728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>4.740324675324675</v>
-      </c>
-      <c r="C4">
-        <v>2.068666703269999</v>
-      </c>
-      <c r="D4">
-        <v>4.279381929217968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>25.4067316017316</v>
-      </c>
-      <c r="C5">
-        <v>7.77227336478631</v>
-      </c>
-      <c r="D5">
-        <v>60.4082332569667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="C6">
-        <v>0.4928224924937734</v>
-      </c>
-      <c r="D6">
-        <v>0.2428740091077753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>53.1038961038961</v>
-      </c>
-      <c r="C7">
-        <v>9.806903322952786</v>
-      </c>
-      <c r="D7">
-        <v>96.17535278574239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>26.04411255411255</v>
-      </c>
-      <c r="C8">
-        <v>4.209117496564533</v>
-      </c>
-      <c r="D8">
-        <v>17.71667009988568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>17.04439393939393</v>
-      </c>
-      <c r="C9">
-        <v>24.45454968692465</v>
-      </c>
-      <c r="D9">
-        <v>598.0250003902663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>42.81601731601732</v>
-      </c>
-      <c r="C10">
-        <v>14.59313732086082</v>
-      </c>
-      <c r="D10">
-        <v>212.959656865501</v>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
